--- a/liquiditas-monitoring/src/main/resources/templates/report/template_realisasi_invoice_pilot.xlsx
+++ b/liquiditas-monitoring/src/main/resources/templates/report/template_realisasi_invoice_pilot.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kerjaan\Metalica-Corpay\application\Metallica\METALICA\liquiditas\liquiditas-monitoring\src\main\resources\templates\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Update\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49EEEC4-B620-4DAC-AB5D-5A84FB905DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2210" yWindow="2700" windowWidth="25610" windowHeight="14150" tabRatio="500"/>
+    <workbookView xWindow="4905" yWindow="3255" windowWidth="28140" windowHeight="15435" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>${TITLE}</t>
   </si>
@@ -36,7 +37,43 @@
     <t>&lt;/jx:if&gt;</t>
   </si>
   <si>
-    <t>DOCUMENT TYPE</t>
+    <t>VENDOR</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>JENIS TRANSAKSI</t>
+  </si>
+  <si>
+    <t>${detail.ROW_NUMBER}</t>
+  </si>
+  <si>
+    <t>DOCUMENT NUMBER</t>
+  </si>
+  <si>
+    <t>COMPANY CODE</t>
+  </si>
+  <si>
+    <t>FISCAL YEAR</t>
+  </si>
+  <si>
+    <t>EXCHANGE RATE</t>
+  </si>
+  <si>
+    <t>OSS ID</t>
+  </si>
+  <si>
+    <t>TGL RENCANA BAYAR</t>
+  </si>
+  <si>
+    <t>BANK BENEFICIARY</t>
+  </si>
+  <si>
+    <t>NAMA BENEFICIARY</t>
+  </si>
+  <si>
+    <t>JENIS DOKUMEN</t>
   </si>
   <si>
     <t>ITEM TEXT</t>
@@ -45,239 +82,196 @@
     <t>CUSTOMER</t>
   </si>
   <si>
-    <t>VENDOR</t>
+    <t>${detail.DOC_NO}</t>
+  </si>
+  <si>
+    <t>${detail.COMP_CODE}</t>
+  </si>
+  <si>
+    <t>${detail.FISC_YEAR}</t>
+  </si>
+  <si>
+    <t>${detail.DOC_HDR_TXT}</t>
+  </si>
+  <si>
+    <t>${detail.EXCH_RATE}</t>
+  </si>
+  <si>
+    <t>${detail.OSS_ID}</t>
+  </si>
+  <si>
+    <t>${detail.TGL_RENCANA_BYR}</t>
+  </si>
+  <si>
+    <t>${detail.BANK_BENEF}</t>
+  </si>
+  <si>
+    <t>${detail.NAMA_BENEF}</t>
   </si>
   <si>
     <t>${detail.ITEM_TEXT}</t>
   </si>
   <si>
+    <t>INVOICE STATUS</t>
+  </si>
+  <si>
+    <t>PAYMENT DOCUMENT NUMBER</t>
+  </si>
+  <si>
+    <t>PAYMENT AMOUNT</t>
+  </si>
+  <si>
+    <t>ORIGINAL CURRENCY</t>
+  </si>
+  <si>
+    <t>ORIGINAL AMOUNT</t>
+  </si>
+  <si>
+    <t>EQUIVALENT IDR</t>
+  </si>
+  <si>
+    <t>PAYMENT RESIDUAL INDICATOR</t>
+  </si>
+  <si>
+    <t>PAYMENT CURRENCY</t>
+  </si>
+  <si>
+    <t>PAYMENT HOUSE BANK</t>
+  </si>
+  <si>
+    <t>PAYMENT DATE</t>
+  </si>
+  <si>
+    <t>PAYMENT BUS AREA</t>
+  </si>
+  <si>
+    <t>PAYMENT CASH CODE</t>
+  </si>
+  <si>
+    <t>PAYMENT SUMBER DANA</t>
+  </si>
+  <si>
+    <t>GROUP ID</t>
+  </si>
+  <si>
+    <t>DOC HDR TEXT</t>
+  </si>
+  <si>
+    <t>NAMA CUSTOMER</t>
+  </si>
+  <si>
+    <t>NAMA VENDOR</t>
+  </si>
+  <si>
+    <t>NO REK HOUSE BANK</t>
+  </si>
+  <si>
+    <t>VERIFIED BY</t>
+  </si>
+  <si>
+    <t>VERIFIED ON</t>
+  </si>
+  <si>
+    <t>DOC TYPE</t>
+  </si>
+  <si>
+    <t>CREATED DATE</t>
+  </si>
+  <si>
+    <t>${detail.JENIS_TRANSAKSI}</t>
+  </si>
+  <si>
+    <t>${detail.INV_STATUS}</t>
+  </si>
+  <si>
+    <t>${detail.PMT_DOC_NO}</t>
+  </si>
+  <si>
+    <t>${detail.PMT_AMOUNT}</t>
+  </si>
+  <si>
+    <t>${detail.ORI_CURRENCY}</t>
+  </si>
+  <si>
+    <t>${detail.ORI_AMOUNT}</t>
+  </si>
+  <si>
+    <t>${detail.EQ_IDR}</t>
+  </si>
+  <si>
+    <t>${detail.PMT_RESIDUAL_IND}</t>
+  </si>
+  <si>
+    <t>${detail.PMT_CURRENCY}</t>
+  </si>
+  <si>
+    <t>${detail.PMT_HOUSE_BANK}</t>
+  </si>
+  <si>
+    <t>${detail.PMT_DATE}</t>
+  </si>
+  <si>
+    <t>${detail.PMT_BUS_AREA}</t>
+  </si>
+  <si>
+    <t>${detail.PMT_CASH_CODE}</t>
+  </si>
+  <si>
+    <t>${detail.PMT_SUMBER_DANA}</t>
+  </si>
+  <si>
+    <t>${detail.GROUP_ID}</t>
+  </si>
+  <si>
+    <t>${detail.CUSTOMER}</t>
+  </si>
+  <si>
+    <t>${detail.NAMA_CUSTOMER}</t>
+  </si>
+  <si>
     <t>${detail.VENDOR}</t>
   </si>
   <si>
-    <t>${detail.BANK_BENEF}</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>${detail.CUSTOMER}</t>
-  </si>
-  <si>
-    <t>VERIFIED ON</t>
-  </si>
-  <si>
-    <t>${detail.NO}</t>
+    <t>${detail.NAMA_VENDOR}</t>
+  </si>
+  <si>
+    <t>${detail.NO_REK_HOUSE_BANK}</t>
+  </si>
+  <si>
+    <t>${detail.VERIFIED_BY}</t>
   </si>
   <si>
     <t>${detail.VERIFIED_ON}</t>
   </si>
   <si>
-    <t>EXCHANGE RATE</t>
-  </si>
-  <si>
-    <t>BANK BENEFICIARY</t>
-  </si>
-  <si>
-    <t>${detail.NO_REK_BENEF}</t>
-  </si>
-  <si>
-    <t>NAMA BENEFICIARY</t>
-  </si>
-  <si>
-    <t>${detail.NAMA_BENEF}</t>
-  </si>
-  <si>
-    <t>${detail.VERIFIED_BY}</t>
-  </si>
-  <si>
-    <t>JENIS DOKUMEN</t>
-  </si>
-  <si>
-    <t>${detail.COMP_CODE}</t>
-  </si>
-  <si>
-    <t>${detail.DOC_NO}</t>
-  </si>
-  <si>
-    <t>${detail.FISC_YEAR}</t>
-  </si>
-  <si>
-    <t>${detail.OSS_ID}</t>
-  </si>
-  <si>
-    <t>${detail.INV_STATUS}</t>
-  </si>
-  <si>
-    <t>${detail.PMT_DOC_NO}</t>
-  </si>
-  <si>
-    <t>${detail.PMT_AMOUNT}</t>
-  </si>
-  <si>
-    <t>${detail.PMT_RESIDUAL_IND}</t>
-  </si>
-  <si>
-    <t>${detail.PMT_CURRENCY}</t>
-  </si>
-  <si>
-    <t>${detail.PMT_HOUSE_BANK}</t>
-  </si>
-  <si>
-    <t>${detail.PMT_DATE}</t>
-  </si>
-  <si>
-    <t>${detail.PMT_BUS_AREA}</t>
-  </si>
-  <si>
-    <t>${detail.PMT_CASH_CODE}</t>
-  </si>
-  <si>
-    <t>${detail.PMT_SUMBER_DANA}</t>
-  </si>
-  <si>
-    <t>${detail.GROUP_ID}</t>
-  </si>
-  <si>
-    <t>${detail.DOC_HDR_TXT}</t>
-  </si>
-  <si>
-    <t>${detail.NAMA_CUSTOMER}</t>
-  </si>
-  <si>
-    <t>${detail.NAMA_VENDOR}</t>
-  </si>
-  <si>
-    <t>${detail.NO_REK_HOUSE_BANK}</t>
-  </si>
-  <si>
-    <t>${detail.EXCH_RATE}</t>
-  </si>
-  <si>
     <t>${detail.DOC_TYPE}</t>
   </si>
   <si>
-    <t>${detail.TGL_RENCANA_BYR}</t>
-  </si>
-  <si>
     <t>${detail.JENIS_DOK}</t>
   </si>
   <si>
-    <t>${detail.ORI_CURRENCY}</t>
-  </si>
-  <si>
-    <t>${detail.ORI_AMOUNT}</t>
-  </si>
-  <si>
-    <t>${detail.JENIS_TRANSAKSI}</t>
-  </si>
-  <si>
-    <t>${detail.TIPE_TRANSAKSI}</t>
-  </si>
-  <si>
-    <t>${detail.EQ_IDR}</t>
-  </si>
-  <si>
     <t>${detail.CREATE_DATE}</t>
-  </si>
-  <si>
-    <t>COMPANY CODE</t>
-  </si>
-  <si>
-    <t>DOCUMENT NUMBER</t>
-  </si>
-  <si>
-    <t>FISCAL YEAR</t>
-  </si>
-  <si>
-    <t>OSS ID</t>
-  </si>
-  <si>
-    <t>INVOICE STATUS</t>
-  </si>
-  <si>
-    <t>PAYMENT DOC NUMBER</t>
-  </si>
-  <si>
-    <t>PAYMENT AMOUNT</t>
-  </si>
-  <si>
-    <t>PAYMENT RESIDUAL ID</t>
-  </si>
-  <si>
-    <t>PAYMENT CURRENCY</t>
-  </si>
-  <si>
-    <t>PAYMENT HOUSE BANK</t>
-  </si>
-  <si>
-    <t>PAYMENT DATE</t>
-  </si>
-  <si>
-    <t>PAYMENT BUSINESS AREA</t>
-  </si>
-  <si>
-    <t>PAYMENT CASH CODE</t>
-  </si>
-  <si>
-    <t>PAYMENT SUMBER DANA</t>
-  </si>
-  <si>
-    <t>GROUP ID</t>
-  </si>
-  <si>
-    <t>DOCUMENT HDR TXT</t>
-  </si>
-  <si>
-    <t>NAMA CUSTOMER</t>
-  </si>
-  <si>
-    <t>NAMA VENDOR</t>
-  </si>
-  <si>
-    <t>NO REKENING HOUSE BANK</t>
-  </si>
-  <si>
-    <t>NO REKENING BENEFICIARY</t>
-  </si>
-  <si>
-    <t>VERIFIED BY</t>
-  </si>
-  <si>
-    <t>TGL RENCANA BAYAR</t>
-  </si>
-  <si>
-    <t>ORIGINAL CURRENCY</t>
-  </si>
-  <si>
-    <t>ORIGINAL AMOUNT</t>
-  </si>
-  <si>
-    <t>JENIS TRANSAKSI</t>
-  </si>
-  <si>
-    <t>TIPE TRANSAKSI</t>
-  </si>
-  <si>
-    <t>EQUIVALENT IDR</t>
-  </si>
-  <si>
-    <t>CREATED DATE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -288,37 +282,324 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79995117038483843"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -326,54 +607,247 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.49995422223578601"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="22">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent4" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent5" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent6" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent1" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent2" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent3" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent4" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent5" xfId="11" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - Accent6" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent3" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent4" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent5" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - Accent6" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent1" xfId="19" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent2" xfId="20" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent3" xfId="21" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent4" xfId="22" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent5" xfId="23" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Accent6" xfId="24" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Bad" xfId="25" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation" xfId="26" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell" xfId="27" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Explanatory Text" xfId="28" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Good" xfId="29" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Heading 1" xfId="30" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Heading 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Heading 3" xfId="32" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Heading 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Input" xfId="34" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Linked Cell" xfId="35" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Neutral" xfId="36" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="37" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Output" xfId="38" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Title" xfId="39" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Total" xfId="40" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Warning Text" xfId="41" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -400,7 +874,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -746,87 +1220,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2A5E4-09F5-4CB0-B473-5EA81C63316C}">
   <dimension ref="A1:CE50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+      <selection activeCell="AJ8" sqref="AJ8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.875" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="17.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.625" style="1" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="26.5" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="31.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="31.125" style="1" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="27.5" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="34.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.375" style="1" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="18.5" style="1" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="22.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="22.875" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="22.25" style="1" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="16.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19.125" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="27.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="24.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="27.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="24.875" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="22.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.125" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="24.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.125" style="1" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="17.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="18.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.125" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="61" max="63" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="28.83203125" style="1" customWidth="1"/>
+    <col min="64" max="65" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="28.875" style="1" customWidth="1"/>
     <col min="68" max="68" width="27.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="14.375" style="1" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="71" max="72" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="71" max="72" width="17.375" style="1" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="30.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="23.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="25.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="23.125" style="1" bestFit="1" customWidth="1"/>
     <col min="76" max="76" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="20.375" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="22.75" style="1" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="21.75" style="1" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="21.75" style="1" customWidth="1"/>
@@ -835,58 +1308,58 @@
     <col min="84" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:83" ht="18.75">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="19"/>
-      <c r="AT1" s="19"/>
-      <c r="AU1" s="19"/>
-      <c r="AV1" s="19"/>
-      <c r="AW1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
+      <c r="AW1" s="18"/>
       <c r="AX1" s="16"/>
       <c r="AY1" s="16"/>
       <c r="AZ1" s="16"/>
@@ -920,7 +1393,7 @@
       <c r="CB1" s="16"/>
       <c r="CC1" s="16"/>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:83">
       <c r="A2" s="10"/>
       <c r="B2" s="13"/>
       <c r="C2" s="12"/>
@@ -947,121 +1420,117 @@
       <c r="X2" s="10"/>
       <c r="Y2" s="10"/>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:83">
       <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
+      </c>
+      <c r="U3" t="s">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" t="s">
-        <v>75</v>
-      </c>
-      <c r="J3" t="s">
-        <v>76</v>
-      </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>63</v>
-      </c>
-      <c r="R3" t="s">
-        <v>64</v>
-      </c>
-      <c r="S3" t="s">
-        <v>65</v>
-      </c>
-      <c r="T3" t="s">
-        <v>66</v>
-      </c>
-      <c r="U3" t="s">
-        <v>67</v>
-      </c>
-      <c r="V3" t="s">
-        <v>68</v>
-      </c>
-      <c r="W3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>73</v>
-      </c>
       <c r="AG3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH3" t="s">
         <v>14</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>17</v>
       </c>
-      <c r="AI3" t="s">
-        <v>5</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>80</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AK3"/>
+      <c r="AL3"/>
       <c r="AM3"/>
       <c r="AN3"/>
       <c r="AO3"/>
@@ -1074,15 +1543,15 @@
       <c r="AV3" s="7"/>
       <c r="AW3" s="7"/>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:83">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="AX4" s="9"/>
       <c r="AY4" s="9"/>
       <c r="AZ4" s="9"/>
@@ -1118,131 +1587,129 @@
       <c r="CD4" s="7"/>
       <c r="CE4" s="7"/>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:83">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.35">
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:83">
       <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z6" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE6" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="AG6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AA6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL6" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="AI6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ6" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK6" s="16"/>
+      <c r="AL6" s="16"/>
+      <c r="AM6" s="16"/>
+      <c r="AN6" s="16"/>
       <c r="AP6" s="15"/>
       <c r="AQ6" s="17"/>
       <c r="AR6" s="15"/>
@@ -1252,11 +1719,10 @@
       <c r="AV6" s="15"/>
       <c r="AW6" s="15"/>
     </row>
-    <row r="7" spans="1:83" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:83" ht="30.75">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1288,7 +1754,7 @@
       <c r="CD7" s="7"/>
       <c r="CE7" s="7"/>
     </row>
-    <row r="8" spans="1:83" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:83" ht="21">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -1298,118 +1764,118 @@
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:83">
       <c r="AE9" s="6"/>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:83">
       <c r="AC10" s="7"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="8"/>
       <c r="AH10" s="8"/>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:83">
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:83">
       <c r="D12"/>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:83">
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:83">
       <c r="D15"/>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:83">
       <c r="D16"/>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:4">
       <c r="D17"/>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:4">
       <c r="D18"/>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:4">
       <c r="D19"/>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:4">
       <c r="D20"/>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:4">
       <c r="D21"/>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:4">
       <c r="D22"/>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:4">
       <c r="D23"/>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:4">
       <c r="D24"/>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:4">
       <c r="D25"/>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:4">
       <c r="D26"/>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:4">
       <c r="D27"/>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:4">
       <c r="D28"/>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:4">
       <c r="D29"/>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:4">
       <c r="D30"/>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:4">
       <c r="D31"/>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:4">
       <c r="D32"/>
     </row>
-    <row r="33" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:45">
       <c r="D33"/>
     </row>
-    <row r="34" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:45">
       <c r="D34"/>
     </row>
-    <row r="35" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:45">
       <c r="D35"/>
     </row>
-    <row r="36" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:45">
       <c r="D36"/>
     </row>
-    <row r="37" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:45">
       <c r="D37"/>
     </row>
-    <row r="38" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:45">
       <c r="D38"/>
     </row>
-    <row r="39" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:45">
       <c r="D39"/>
     </row>
-    <row r="40" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:45">
       <c r="D40"/>
     </row>
-    <row r="41" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:45">
       <c r="D41"/>
     </row>
-    <row r="42" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:45">
       <c r="D42"/>
     </row>
-    <row r="43" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:45">
       <c r="D43"/>
     </row>
-    <row r="44" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:45">
       <c r="D44"/>
     </row>
-    <row r="45" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:45">
       <c r="D45"/>
     </row>
-    <row r="46" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:45">
       <c r="D46"/>
       <c r="F46"/>
       <c r="G46"/>
@@ -1452,24 +1918,24 @@
       <c r="AR46"/>
       <c r="AS46"/>
     </row>
-    <row r="47" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:45">
       <c r="D47"/>
     </row>
-    <row r="48" spans="4:45" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:45">
       <c r="D48"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="4:4">
       <c r="D49"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="4:4">
       <c r="D50"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AW1"/>
+    <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>